--- a/HS Duties 2020-1.xlsx
+++ b/HS Duties 2020-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofs/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityaharish/Documents/Documents/Subjects/CompSci/G11/Computer-Science-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{838D066D-0B5C-E747-9149-8D6BEEC6983B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A8D419-44DF-E54C-9A37-ABAC29DE51F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="1620" windowWidth="28040" windowHeight="17440" xr2:uid="{8F46A332-00FC-E643-8024-A98996072B81}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{8F46A332-00FC-E643-8024-A98996072B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="34">
   <si>
     <t>Duty-Reception </t>
   </si>
@@ -45,27 +45,12 @@
     <t>Duty-Library</t>
   </si>
   <si>
-    <t>After School</t>
-  </si>
-  <si>
     <t xml:space="preserve">Duty-Library </t>
   </si>
   <si>
     <t>Duty-Drama Foyer/PE Change Rooms Sweep</t>
   </si>
   <si>
-    <t>Lunch - Second Half  1.55 - 2.25pm</t>
-  </si>
-  <si>
-    <t>Lunch - First Half 1.25 - 1.55pm</t>
-  </si>
-  <si>
-    <t>Break. 11.05 - 11.25am</t>
-  </si>
-  <si>
-    <t>Before School. 8.30 - 9.00am</t>
-  </si>
-  <si>
     <t>Duty-Shuttle Bus. 3.30 - 4.00</t>
   </si>
   <si>
@@ -109,13 +94,46 @@
   </si>
   <si>
     <t>Duty-Atrium/Lockers/Lift lobby Sweep</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday </t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>8.30 - 9.00</t>
+  </si>
+  <si>
+    <t>11.05 - 11.25</t>
+  </si>
+  <si>
+    <t>13:25 - 13:55</t>
+  </si>
+  <si>
+    <t>13:55 - 14:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30 - 17:00 </t>
+  </si>
+  <si>
+    <t>Wenesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +145,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,9 +185,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF56533C-2371-2D42-80E3-158F7BC1ACE1}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,141 +516,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>27</v>
+      <c r="A2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>26</v>
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>19</v>
+      <c r="A26" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -624,63 +691,878 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>8</v>
+      <c r="A36" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>18</v>
+      <c r="A42" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>14</v>
+      <c r="A45" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/HS Duties 2020-1.xlsx
+++ b/HS Duties 2020-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityaharish/Documents/Documents/Subjects/CompSci/G11/Computer-Science-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A8D419-44DF-E54C-9A37-ABAC29DE51F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE5CF45-130D-4844-8237-749B6297C15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{8F46A332-00FC-E643-8024-A98996072B81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8F46A332-00FC-E643-8024-A98996072B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="34">
   <si>
     <t>Duty-Reception </t>
   </si>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF56533C-2371-2D42-80E3-158F7BC1ACE1}">
-  <dimension ref="A1:A214"/>
+  <dimension ref="A1:A211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,801 +767,786 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>21</v>
+      <c r="A58" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>28</v>
+      <c r="A60" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>6</v>
+      <c r="A67" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>29</v>
+      <c r="A69" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>5</v>
+      <c r="A77" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>30</v>
+      <c r="A79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>31</v>
+      <c r="A87" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>26</v>
+      <c r="A88" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>0</v>
+      <c r="A90" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>27</v>
+      <c r="A92" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>21</v>
+      <c r="A101" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>28</v>
+      <c r="A103" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>6</v>
+      <c r="A110" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>29</v>
+      <c r="A112" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>5</v>
+      <c r="A120" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>30</v>
+      <c r="A122" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>26</v>
+      <c r="A131" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>0</v>
+      <c r="A133" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>27</v>
+      <c r="A135" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>21</v>
+      <c r="A144" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>28</v>
+      <c r="A146" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>6</v>
+      <c r="A153" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>29</v>
+      <c r="A155" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>5</v>
+      <c r="A163" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>30</v>
+      <c r="A165" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>26</v>
+      <c r="A174" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
-        <v>0</v>
+      <c r="A176" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>27</v>
+      <c r="A178" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>6</v>
+      <c r="A186" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>28</v>
+      <c r="A189" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
-        <v>14</v>
+      <c r="A195" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>29</v>
+      <c r="A198" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
-        <v>17</v>
+      <c r="A205" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>30</v>
+      <c r="A208" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
         <v>12</v>
       </c>
     </row>
